--- a/_xls/X-u5-i10_semindices.xlsx-recomendacoes_df-mp_loss_indv.xlsx
+++ b/_xls/X-u5-i10_semindices.xlsx-recomendacoes_df-mp_loss_indv.xlsx
@@ -467,162 +467,162 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.784202575683594</v>
+        <v>2.235511302947998</v>
       </c>
       <c r="B2" t="n">
-        <v>3.486318588256836</v>
+        <v>2.746681690216064</v>
       </c>
       <c r="C2" t="n">
-        <v>4.242020606994629</v>
+        <v>2.585004806518555</v>
       </c>
       <c r="D2" t="n">
-        <v>4.215846061706543</v>
+        <v>3.886017322540283</v>
       </c>
       <c r="E2" t="n">
-        <v>1.381121754646301</v>
+        <v>1.233289122581482</v>
       </c>
       <c r="F2" t="n">
-        <v>1.102619886398315</v>
+        <v>1.055222153663635</v>
       </c>
       <c r="G2" t="n">
-        <v>1.370671391487122</v>
+        <v>1.16559898853302</v>
       </c>
       <c r="H2" t="n">
-        <v>1.160953283309937</v>
+        <v>1.055459499359131</v>
       </c>
       <c r="I2" t="n">
-        <v>1.833799123764038</v>
+        <v>1.411830425262451</v>
       </c>
       <c r="J2" t="n">
-        <v>1.700796127319336</v>
+        <v>1.35863995552063</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3.2140953540802</v>
+        <v>2.559581518173218</v>
       </c>
       <c r="B3" t="n">
-        <v>2.708506107330322</v>
+        <v>3.125204086303711</v>
       </c>
       <c r="C3" t="n">
-        <v>3.748554944992065</v>
+        <v>3.636861562728882</v>
       </c>
       <c r="D3" t="n">
-        <v>1.989090800285339</v>
+        <v>4.336255550384521</v>
       </c>
       <c r="E3" t="n">
-        <v>4.220870971679688</v>
+        <v>1.635314464569092</v>
       </c>
       <c r="F3" t="n">
-        <v>4.134702682495117</v>
+        <v>2.811973810195923</v>
       </c>
       <c r="G3" t="n">
-        <v>1.927701354026794</v>
+        <v>1.54335355758667</v>
       </c>
       <c r="H3" t="n">
-        <v>2.989109992980957</v>
+        <v>1.337255477905273</v>
       </c>
       <c r="I3" t="n">
-        <v>1.39034628868103</v>
+        <v>2.571704864501953</v>
       </c>
       <c r="J3" t="n">
-        <v>2.862190008163452</v>
+        <v>1.890055179595947</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4.355747222900391</v>
+        <v>3.910655736923218</v>
       </c>
       <c r="B4" t="n">
-        <v>3.099353790283203</v>
+        <v>3.62295126914978</v>
       </c>
       <c r="C4" t="n">
-        <v>1.651662111282349</v>
+        <v>1.568171262741089</v>
       </c>
       <c r="D4" t="n">
-        <v>2.870449542999268</v>
+        <v>2.822600841522217</v>
       </c>
       <c r="E4" t="n">
-        <v>4.507077217102051</v>
+        <v>3.60453462600708</v>
       </c>
       <c r="F4" t="n">
-        <v>4.291440963745117</v>
+        <v>4.009854316711426</v>
       </c>
       <c r="G4" t="n">
-        <v>1.843435287475586</v>
+        <v>1.814749240875244</v>
       </c>
       <c r="H4" t="n">
-        <v>3.449827432632446</v>
+        <v>1.959276437759399</v>
       </c>
       <c r="I4" t="n">
-        <v>2.615683078765869</v>
+        <v>2.281657695770264</v>
       </c>
       <c r="J4" t="n">
-        <v>3.53073263168335</v>
+        <v>1.952430605888367</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.550019502639771</v>
+        <v>2.284515857696533</v>
       </c>
       <c r="B5" t="n">
-        <v>1.603226065635681</v>
+        <v>1.896615624427795</v>
       </c>
       <c r="C5" t="n">
-        <v>3.220512866973877</v>
+        <v>2.388680458068848</v>
       </c>
       <c r="D5" t="n">
-        <v>1.331022024154663</v>
+        <v>1.345835208892822</v>
       </c>
       <c r="E5" t="n">
-        <v>3.158866882324219</v>
+        <v>3.028537750244141</v>
       </c>
       <c r="F5" t="n">
-        <v>2.767582893371582</v>
+        <v>2.328397035598755</v>
       </c>
       <c r="G5" t="n">
-        <v>3.972844839096069</v>
+        <v>3.791662693023682</v>
       </c>
       <c r="H5" t="n">
-        <v>4.491868495941162</v>
+        <v>4.868638515472412</v>
       </c>
       <c r="I5" t="n">
-        <v>3.69182562828064</v>
+        <v>3.755069732666016</v>
       </c>
       <c r="J5" t="n">
-        <v>2.869973182678223</v>
+        <v>4.041670799255371</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.92956018447876</v>
+        <v>1.80283522605896</v>
       </c>
       <c r="B6" t="n">
-        <v>2.278974533081055</v>
+        <v>3.565490007400513</v>
       </c>
       <c r="C6" t="n">
-        <v>3.510144948959351</v>
+        <v>4.738082885742188</v>
       </c>
       <c r="D6" t="n">
-        <v>1.883042573928833</v>
+        <v>1.778337478637695</v>
       </c>
       <c r="E6" t="n">
-        <v>4.320142269134521</v>
+        <v>3.981463670730591</v>
       </c>
       <c r="F6" t="n">
-        <v>1.98272168636322</v>
+        <v>2.014720439910889</v>
       </c>
       <c r="G6" t="n">
-        <v>2.335655689239502</v>
+        <v>3.974772691726685</v>
       </c>
       <c r="H6" t="n">
-        <v>4.123343467712402</v>
+        <v>1.947682857513428</v>
       </c>
       <c r="I6" t="n">
-        <v>3.171029806137085</v>
+        <v>4.885996341705322</v>
       </c>
       <c r="J6" t="n">
-        <v>3.626999139785767</v>
+        <v>3.686494588851929</v>
       </c>
     </row>
   </sheetData>
